--- a/_site/instructions/templates/define_spreads.xlsx
+++ b/_site/instructions/templates/define_spreads.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>indicator</t>
+  </si>
   <si>
     <t>chart_type</t>
   </si>
@@ -131,10 +134,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -164,6 +167,9 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
